--- a/Cards & Abilities.xlsx
+++ b/Cards & Abilities.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="185">
   <si>
     <t>1矢 The Arrow — Стріла</t>
   </si>
@@ -678,6 +678,9 @@
   </si>
   <si>
     <t>Воздействует на воздух вокруг цели, затрудняя ее дыхание на Х сек. Во время удушения скорость движения цели снижена на 50%, а интервал между атаками увеличивается в два раза. Если в момент применения умения цель была заражена Чумой, урон яда увеличивается в Х раз. Этот эффект спадает, если цель будет повторно отравлена во время действия умения и не складывается при применении умения одновременно с Зеркалом.</t>
+  </si>
+  <si>
+    <t>Воздействует на цель, подвергая ее тело разложению, нанося ХХ ед. урона каждую секунду в течение N сек. Урон умения увеличивается на процент, равный текущему проценту здоровья цели.</t>
   </si>
 </sst>
 </file>
@@ -2133,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2426,12 +2429,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="49"/>
       <c r="C24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="32" t="s">
+        <v>184</v>
+      </c>
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
       <c r="G24" s="15" t="s">
